--- a/Default_shot/info57.xlsx
+++ b/Default_shot/info57.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\XXRapid_Qt_viewer\example\Shot_57_example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\XXRapid_Qt_viewer\Default_shot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62915ABE-EF3B-43C7-93FA-3E9D7991C6ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B488319-6D20-4285-9038-51749B615DDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
   <si>
     <t>N_shot</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>H</t>
+  </si>
+  <si>
+    <t>Transverse</t>
   </si>
 </sst>
 </file>
@@ -422,19 +425,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -445,7 +448,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -456,7 +459,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -467,7 +470,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -478,7 +481,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -489,7 +492,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -500,7 +503,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -511,7 +514,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -522,7 +525,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -533,7 +536,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -544,7 +547,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -555,7 +558,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -566,7 +569,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -577,7 +580,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -588,7 +591,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -599,7 +602,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -610,7 +613,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -619,6 +622,14 @@
       </c>
       <c r="C17" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Default_shot/info57.xlsx
+++ b/Default_shot/info57.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\XXRapid_Qt_viewer\Default_shot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B488319-6D20-4285-9038-51749B615DDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80AC3DDC-AACD-49A3-9129-FCD35DBC875C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33405" yWindow="3630" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
   <si>
     <t>N_shot</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>Transverse</t>
+  </si>
+  <si>
+    <t>Tektronix</t>
   </si>
 </sst>
 </file>
@@ -425,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,7 +577,7 @@
         <v>7</v>
       </c>
       <c r="B13">
-        <v>35200</v>
+        <v>-35200</v>
       </c>
       <c r="C13" t="s">
         <v>13</v>
@@ -585,7 +588,7 @@
         <v>8</v>
       </c>
       <c r="B14">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
@@ -630,6 +633,20 @@
       </c>
       <c r="B18">
         <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>1000</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Default_shot/info57.xlsx
+++ b/Default_shot/info57.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\XXRapid_Qt_viewer\Default_shot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80AC3DDC-AACD-49A3-9129-FCD35DBC875C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33495F89-6825-42EE-9CEF-E0F5F52A246E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33405" yWindow="3630" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3036" yWindow="3036" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -431,16 +431,16 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -451,7 +451,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -462,7 +462,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -473,7 +473,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -484,7 +484,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -495,7 +495,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -506,7 +506,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -517,7 +517,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -528,7 +528,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -550,7 +550,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -561,7 +561,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -572,7 +572,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -583,18 +583,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>8</v>
       </c>
       <c r="B14">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -605,7 +605,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -616,7 +616,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -627,7 +627,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -638,7 +638,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>27</v>
       </c>

--- a/Default_shot/info57.xlsx
+++ b/Default_shot/info57.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\XXRapid_Qt_viewer\Default_shot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33495F89-6825-42EE-9CEF-E0F5F52A246E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAED64E5-4000-4D44-B6EE-88E5CAB59B7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3036" yWindow="3036" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4008" yWindow="3456" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -431,7 +431,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
